--- a/spec/fixtures/files/projects-import.xlsx
+++ b/spec/fixtures/files/projects-import.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:S3"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
@@ -403,19 +403,9 @@
     <col min="17" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" customWidth="1"/>
-    <col min="24" max="24" width="20.7109375" customWidth="1"/>
-    <col min="25" max="25" width="20.7109375" customWidth="1"/>
-    <col min="26" max="26" width="20.7109375" customWidth="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1"/>
-    <col min="28" max="28" width="20.7109375" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1">
+    <row r="1" spans="1:19" s="3" customFormat="1">
       <c r="A1" s="3" t="str">
         <v>id</v>
       </c>
@@ -423,88 +413,58 @@
         <v>category/id</v>
       </c>
       <c r="C1" s="3" t="str">
-        <v>category/name/ca</v>
+        <v>category/name/en</v>
       </c>
       <c r="D1" s="3" t="str">
-        <v>category/name/en</v>
+        <v>scope/id</v>
       </c>
       <c r="E1" s="3" t="str">
-        <v>category/name/machine_translations/es</v>
+        <v>scope/name/en</v>
       </c>
       <c r="F1" s="3" t="str">
-        <v>scope/id</v>
+        <v>participatory_space/id</v>
       </c>
       <c r="G1" s="3" t="str">
-        <v>scope/name/ca</v>
+        <v>participatory_space/url</v>
       </c>
       <c r="H1" s="3" t="str">
-        <v>scope/name/en</v>
+        <v>component/id</v>
       </c>
       <c r="I1" s="3" t="str">
-        <v>scope/name/es</v>
+        <v>title/en</v>
       </c>
       <c r="J1" s="3" t="str">
-        <v>participatory_space/id</v>
+        <v>description/en</v>
       </c>
       <c r="K1" s="3" t="str">
-        <v>participatory_space/url</v>
+        <v>budget/id</v>
       </c>
       <c r="L1" s="3" t="str">
-        <v>component/id</v>
+        <v>budget_amount</v>
       </c>
       <c r="M1" s="3" t="str">
-        <v>title/ca</v>
+        <v>confirmed_votes</v>
       </c>
       <c r="N1" s="3" t="str">
-        <v>title/en</v>
+        <v>comments</v>
       </c>
       <c r="O1" s="3" t="str">
-        <v>title/es</v>
+        <v>created_at</v>
       </c>
       <c r="P1" s="3" t="str">
-        <v>title/machine_translations/es</v>
+        <v>url</v>
       </c>
       <c r="Q1" s="3" t="str">
-        <v>description/ca</v>
+        <v>related_proposals</v>
       </c>
       <c r="R1" s="3" t="str">
-        <v>description/en</v>
+        <v>related_proposal_titles</v>
       </c>
       <c r="S1" s="3" t="str">
-        <v>description/es</v>
-      </c>
-      <c r="T1" s="3" t="str">
-        <v>description/machine_translations/es</v>
-      </c>
-      <c r="U1" s="3" t="str">
-        <v>budget/id</v>
-      </c>
-      <c r="V1" s="3" t="str">
-        <v>budget_amount</v>
-      </c>
-      <c r="W1" s="3" t="str">
-        <v>confirmed_votes</v>
-      </c>
-      <c r="X1" s="3" t="str">
-        <v>comments</v>
-      </c>
-      <c r="Y1" s="3" t="str">
-        <v>created_at</v>
-      </c>
-      <c r="Z1" s="3" t="str">
-        <v>url</v>
-      </c>
-      <c r="AA1" s="3" t="str">
-        <v>related_proposals</v>
-      </c>
-      <c r="AB1" s="3" t="str">
-        <v>related_proposal_titles</v>
-      </c>
-      <c r="AC1" s="3" t="str">
         <v>related_proposal_urls</v>
       </c>
     </row>
-    <row r="2" spans="1:29" customFormat="false">
+    <row r="2" spans="1:19" customFormat="false">
       <c r="A2" s="0">
         <v>1</v>
       </c>
@@ -512,85 +472,112 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="str">
-        <v>Impedit quasi inventore sint quibusdam.</v>
-      </c>
-      <c r="D2" s="0" t="str">
-        <v>Est dolorem mollitia sed aperiam.</v>
+        <v>Category example</v>
+      </c>
+      <c r="D2" s="0">
+        <v>3</v>
       </c>
       <c r="E2" s="0" t="str">
-        <v>Et accusamus omnis laboriosam sapiente.</v>
+        <v>North Yvone</v>
       </c>
       <c r="F2" s="0">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G2" s="0" t="str">
-        <v>Lake Cory</v>
-      </c>
-      <c r="H2" s="0" t="str">
-        <v>Lake Cory</v>
+        <v>http://localhost:3000/processes/strikebreaker-agree?participatory_process_slug=strikebreaker-agree</v>
+      </c>
+      <c r="H2" s="0">
+        <v>4</v>
       </c>
       <c r="I2" s="0" t="str">
-        <v>Lake Cory</v>
-      </c>
-      <c r="J2" s="0">
+        <v>Occaecati qui.</v>
+      </c>
+      <c r="J2" s="0" t="str">
+        <v>&lt;p&gt;Voluptates sequi sit. Odio sed consectetur. Qui in nisi.&lt;/p&gt;</v>
+      </c>
+      <c r="K2" s="0">
         <v>1</v>
       </c>
-      <c r="K2" s="0" t="str">
-        <v>http://localhost:3000/processes/transfer-push?participatory_process_slug=transfer-push</v>
-      </c>
       <c r="L2" s="0">
-        <v>4</v>
-      </c>
-      <c r="M2" s="0" t="str">
-        <v>Quae recusandae.</v>
-      </c>
-      <c r="N2" s="0" t="str">
-        <v>Example title</v>
-      </c>
-      <c r="O2" s="0" t="str">
+        <v>40775012</v>
+      </c>
+      <c r="M2" s="0">
+        <v>0</v>
+      </c>
+      <c r="N2" s="0">
+        <v>2</v>
+      </c>
+      <c r="O2" s="4">
+        <v>44938.55857400277</v>
+      </c>
+      <c r="P2" s="0" t="str">
+        <v>http://localhost:3000/processes/strikebreaker-agree/f/4/budgets/1/projects/1</v>
+      </c>
+      <c r="Q2" s="0" t="str">
         <v/>
       </c>
-      <c r="P2" s="0" t="str">
-        <v>Quos reiciendis.</v>
-      </c>
-      <c r="Q2" s="0" t="str">
-        <v>&lt;p&gt;Enim nesciunt amet. Tenetur provident debitis. Quisquam pariatur repellat.&lt;/p&gt;</v>
-      </c>
       <c r="R2" s="0" t="str">
-        <v>&lt;p&gt;Example description&lt;/p&gt;</v>
+        <v/>
       </c>
       <c r="S2" s="0" t="str">
         <v/>
       </c>
-      <c r="T2" s="0" t="str">
-        <v>&lt;p&gt;Doloremque ut distinctio. Laudantium amet distinctio. Qui non ipsam.&lt;/p&gt;</v>
-      </c>
-      <c r="U2" s="0">
+    </row>
+    <row r="3" spans="1:19" customFormat="false">
+      <c r="A3" s="0">
+        <v>21</v>
+      </c>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="D3" s="0">
+        <v>18</v>
+      </c>
+      <c r="E3" s="0" t="str">
+        <v>Remediosport</v>
+      </c>
+      <c r="F3" s="0">
         <v>1</v>
       </c>
-      <c r="V2" s="0">
-        <v>71662666</v>
-      </c>
-      <c r="W2" s="0">
+      <c r="G3" s="0" t="str">
+        <v>http://localhost:3000/processes/strikebreaker-agree?participatory_process_slug=strikebreaker-agree</v>
+      </c>
+      <c r="H3" s="0">
+        <v>4</v>
+      </c>
+      <c r="I3" s="0" t="str">
+        <v>Project example 2</v>
+      </c>
+      <c r="J3" s="0" t="str">
+        <v>&lt;p&gt;Project example description 2&lt;/p&gt;</v>
+      </c>
+      <c r="K3" s="0">
+        <v>1</v>
+      </c>
+      <c r="L3" s="0">
+        <v>10000</v>
+      </c>
+      <c r="M3" s="0">
         <v>0</v>
       </c>
-      <c r="X2" s="0">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>44936.658472600495</v>
-      </c>
-      <c r="Z2" s="0" t="str">
-        <v>http://localhost:3000/processes/transfer-push/f/4/budgets/1/projects/1</v>
-      </c>
-      <c r="AA2" s="0" t="str">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="0" t="str">
-        <v>My proposal you know</v>
-      </c>
-      <c r="AC2" s="0" t="str">
-        <v>http://localhost:3000/processes/transfer-push/f/3/proposals/1</v>
+      <c r="N3" s="0">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>44938.57139648128</v>
+      </c>
+      <c r="P3" s="0" t="str">
+        <v>http://localhost:3000/processes/strikebreaker-agree/f/4/budgets/1/projects/21</v>
+      </c>
+      <c r="Q3" s="0" t="str">
+        <v>2, 1</v>
+      </c>
+      <c r="R3" s="0" t="str">
+        <v>Nihil occaecati. Similique., Proposal example</v>
+      </c>
+      <c r="S3" s="0" t="str">
+        <v>http://localhost:3000/processes/strikebreaker-agree/f/3/proposals/2, http://localhost:3000/processes/strikebreaker-agree/f/3/proposals/1</v>
       </c>
     </row>
   </sheetData>
